--- a/data/output/FV2410_FV2404/UTILMD/55116.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55116.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10960" uniqueCount="683">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10981" uniqueCount="683">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -2203,6 +2203,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U482" totalsRowShown="0">
+  <autoFilter ref="A1:U482"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2492,7 +2522,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U482"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -25861,5 +25894,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55116.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55116.xlsx
@@ -4056,7 +4056,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -4564,7 +4564,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -5074,7 +5074,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -5274,7 +5274,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -5648,7 +5648,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -5956,7 +5956,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -6156,7 +6156,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -6590,7 +6590,7 @@
         <v>631</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -6752,7 +6752,7 @@
         <v>632</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -6956,7 +6956,7 @@
         <v>634</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -7160,7 +7160,7 @@
         <v>636</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -7364,7 +7364,7 @@
         <v>638</v>
       </c>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -7568,7 +7568,7 @@
         <v>639</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -7770,7 +7770,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -7972,7 +7972,7 @@
         <v>641</v>
       </c>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -8120,7 +8120,7 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -8278,7 +8278,7 @@
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -8534,7 +8534,7 @@
         <v>642</v>
       </c>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -8682,7 +8682,7 @@
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -8844,7 +8844,7 @@
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -9056,7 +9056,7 @@
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -9202,7 +9202,7 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -9302,7 +9302,7 @@
       </c>
       <c r="K104" s="2"/>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="4"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -9604,7 +9604,7 @@
         <v>643</v>
       </c>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -9752,7 +9752,7 @@
       </c>
       <c r="K113" s="2"/>
       <c r="L113" s="4"/>
-      <c r="M113" s="2" t="s">
+      <c r="M113" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N113" s="2" t="s">
@@ -9916,7 +9916,7 @@
         <v>644</v>
       </c>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -10136,7 +10136,7 @@
         <v>646</v>
       </c>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -10340,7 +10340,7 @@
         <v>647</v>
       </c>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -10538,7 +10538,7 @@
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -10892,7 +10892,7 @@
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -11090,7 +11090,7 @@
         <v>648</v>
       </c>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -11238,7 +11238,7 @@
       </c>
       <c r="K142" s="2"/>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -11396,7 +11396,7 @@
       </c>
       <c r="K145" s="2"/>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -11652,7 +11652,7 @@
         <v>649</v>
       </c>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -11962,7 +11962,7 @@
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -12180,7 +12180,7 @@
         <v>651</v>
       </c>
       <c r="L160" s="4"/>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N160" s="2" t="s">
@@ -12592,7 +12592,7 @@
         <v>652</v>
       </c>
       <c r="L168" s="4"/>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N168" s="2" t="s">
@@ -12792,7 +12792,7 @@
         <v>653</v>
       </c>
       <c r="L172" s="4"/>
-      <c r="M172" s="2" t="s">
+      <c r="M172" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N172" s="2" t="s">
@@ -12990,7 +12990,7 @@
       </c>
       <c r="K176" s="2"/>
       <c r="L176" s="4"/>
-      <c r="M176" s="2" t="s">
+      <c r="M176" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N176" s="2" t="s">
@@ -13136,7 +13136,7 @@
       </c>
       <c r="K179" s="2"/>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -13506,7 +13506,7 @@
       </c>
       <c r="K186" s="2"/>
       <c r="L186" s="4"/>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N186" s="2" t="s">
@@ -13652,7 +13652,7 @@
       </c>
       <c r="K189" s="2"/>
       <c r="L189" s="4"/>
-      <c r="M189" s="2" t="s">
+      <c r="M189" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N189" s="2" t="s">
@@ -14024,7 +14024,7 @@
         <v>654</v>
       </c>
       <c r="L196" s="4"/>
-      <c r="M196" s="2" t="s">
+      <c r="M196" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N196" s="2" t="s">
@@ -14172,7 +14172,7 @@
       </c>
       <c r="K199" s="2"/>
       <c r="L199" s="4"/>
-      <c r="M199" s="2" t="s">
+      <c r="M199" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N199" s="2" t="s">
@@ -14328,7 +14328,7 @@
         <v>655</v>
       </c>
       <c r="L202" s="4"/>
-      <c r="M202" s="2" t="s">
+      <c r="M202" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N202" s="2" t="s">
@@ -14476,7 +14476,7 @@
       </c>
       <c r="K205" s="2"/>
       <c r="L205" s="4"/>
-      <c r="M205" s="2" t="s">
+      <c r="M205" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N205" s="2" t="s">
@@ -14638,7 +14638,7 @@
       </c>
       <c r="K208" s="2"/>
       <c r="L208" s="4"/>
-      <c r="M208" s="2" t="s">
+      <c r="M208" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N208" s="2" t="s">
@@ -14850,7 +14850,7 @@
       </c>
       <c r="K212" s="2"/>
       <c r="L212" s="4"/>
-      <c r="M212" s="2" t="s">
+      <c r="M212" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N212" s="2" t="s">
@@ -15046,7 +15046,7 @@
       </c>
       <c r="K216" s="2"/>
       <c r="L216" s="4"/>
-      <c r="M216" s="2" t="s">
+      <c r="M216" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N216" s="2" t="s">
@@ -15244,7 +15244,7 @@
         <v>656</v>
       </c>
       <c r="L220" s="4"/>
-      <c r="M220" s="2" t="s">
+      <c r="M220" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N220" s="2" t="s">
@@ -15392,7 +15392,7 @@
       </c>
       <c r="K223" s="2"/>
       <c r="L223" s="4"/>
-      <c r="M223" s="2" t="s">
+      <c r="M223" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N223" s="2" t="s">
@@ -15554,7 +15554,7 @@
       </c>
       <c r="K226" s="2"/>
       <c r="L226" s="4"/>
-      <c r="M226" s="2" t="s">
+      <c r="M226" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N226" s="2" t="s">
@@ -15770,7 +15770,7 @@
       </c>
       <c r="K230" s="2"/>
       <c r="L230" s="4"/>
-      <c r="M230" s="2" t="s">
+      <c r="M230" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N230" s="2" t="s">
@@ -15916,7 +15916,7 @@
       </c>
       <c r="K233" s="2"/>
       <c r="L233" s="4"/>
-      <c r="M233" s="2" t="s">
+      <c r="M233" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N233" s="2" t="s">
@@ -16070,7 +16070,7 @@
       </c>
       <c r="K236" s="2"/>
       <c r="L236" s="4"/>
-      <c r="M236" s="2" t="s">
+      <c r="M236" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N236" s="2" t="s">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="K239" s="2"/>
       <c r="L239" s="4"/>
-      <c r="M239" s="2" t="s">
+      <c r="M239" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N239" s="2" t="s">
@@ -16370,7 +16370,7 @@
       </c>
       <c r="K242" s="2"/>
       <c r="L242" s="4"/>
-      <c r="M242" s="2" t="s">
+      <c r="M242" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N242" s="2" t="s">
@@ -16516,7 +16516,7 @@
       </c>
       <c r="K245" s="2"/>
       <c r="L245" s="4"/>
-      <c r="M245" s="2" t="s">
+      <c r="M245" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N245" s="2" t="s">
@@ -16672,7 +16672,7 @@
         <v>658</v>
       </c>
       <c r="L248" s="4"/>
-      <c r="M248" s="2" t="s">
+      <c r="M248" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N248" s="2" t="s">
@@ -16820,7 +16820,7 @@
       </c>
       <c r="K251" s="2"/>
       <c r="L251" s="4"/>
-      <c r="M251" s="2" t="s">
+      <c r="M251" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N251" s="2" t="s">
@@ -16978,7 +16978,7 @@
       </c>
       <c r="K254" s="2"/>
       <c r="L254" s="4"/>
-      <c r="M254" s="2" t="s">
+      <c r="M254" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N254" s="2" t="s">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="K257" s="2"/>
       <c r="L257" s="4"/>
-      <c r="M257" s="2" t="s">
+      <c r="M257" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N257" s="2" t="s">
@@ -17338,7 +17338,7 @@
         <v>659</v>
       </c>
       <c r="L261" s="4"/>
-      <c r="M261" s="2" t="s">
+      <c r="M261" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N261" s="2" t="s">
@@ -17486,7 +17486,7 @@
       </c>
       <c r="K264" s="2"/>
       <c r="L264" s="4"/>
-      <c r="M264" s="2" t="s">
+      <c r="M264" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N264" s="2" t="s">
@@ -17648,7 +17648,7 @@
       </c>
       <c r="K267" s="2"/>
       <c r="L267" s="4"/>
-      <c r="M267" s="2" t="s">
+      <c r="M267" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N267" s="2" t="s">
@@ -17860,7 +17860,7 @@
       </c>
       <c r="K271" s="2"/>
       <c r="L271" s="4"/>
-      <c r="M271" s="2" t="s">
+      <c r="M271" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N271" s="2" t="s">
@@ -18110,7 +18110,7 @@
       </c>
       <c r="K276" s="2"/>
       <c r="L276" s="4"/>
-      <c r="M276" s="2" t="s">
+      <c r="M276" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N276" s="2" t="s">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="K283" s="2"/>
       <c r="L283" s="4"/>
-      <c r="M283" s="2" t="s">
+      <c r="M283" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N283" s="2" t="s">
@@ -18662,7 +18662,7 @@
         <v>660</v>
       </c>
       <c r="L287" s="4"/>
-      <c r="M287" s="2" t="s">
+      <c r="M287" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N287" s="2" t="s">
@@ -18810,7 +18810,7 @@
       </c>
       <c r="K290" s="2"/>
       <c r="L290" s="4"/>
-      <c r="M290" s="2" t="s">
+      <c r="M290" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N290" s="2" t="s">
@@ -18968,7 +18968,7 @@
       </c>
       <c r="K293" s="2"/>
       <c r="L293" s="4"/>
-      <c r="M293" s="2" t="s">
+      <c r="M293" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N293" s="2" t="s">
@@ -19378,7 +19378,7 @@
         <v>661</v>
       </c>
       <c r="L301" s="4"/>
-      <c r="M301" s="2" t="s">
+      <c r="M301" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N301" s="2" t="s">
@@ -19526,7 +19526,7 @@
       </c>
       <c r="K304" s="2"/>
       <c r="L304" s="4"/>
-      <c r="M304" s="2" t="s">
+      <c r="M304" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N304" s="2" t="s">
@@ -19690,7 +19690,7 @@
         <v>662</v>
       </c>
       <c r="L307" s="4"/>
-      <c r="M307" s="2" t="s">
+      <c r="M307" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N307" s="2" t="s">
@@ -19846,7 +19846,7 @@
       </c>
       <c r="K310" s="2"/>
       <c r="L310" s="4"/>
-      <c r="M310" s="2" t="s">
+      <c r="M310" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N310" s="2" t="s">
@@ -20698,7 +20698,7 @@
       </c>
       <c r="K326" s="2"/>
       <c r="L326" s="4"/>
-      <c r="M326" s="2" t="s">
+      <c r="M326" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N326" s="2" t="s">
@@ -20858,7 +20858,7 @@
         <v>664</v>
       </c>
       <c r="L329" s="4"/>
-      <c r="M329" s="2" t="s">
+      <c r="M329" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N329" s="2" t="s">
@@ -21072,7 +21072,7 @@
       </c>
       <c r="K333" s="2"/>
       <c r="L333" s="4"/>
-      <c r="M333" s="2" t="s">
+      <c r="M333" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N333" s="2" t="s">
@@ -21230,7 +21230,7 @@
       </c>
       <c r="K336" s="2"/>
       <c r="L336" s="4"/>
-      <c r="M336" s="2" t="s">
+      <c r="M336" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N336" s="2" t="s">
@@ -21442,7 +21442,7 @@
       </c>
       <c r="K340" s="2"/>
       <c r="L340" s="4"/>
-      <c r="M340" s="2" t="s">
+      <c r="M340" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N340" s="2" t="s">
@@ -21798,7 +21798,7 @@
         <v>665</v>
       </c>
       <c r="L347" s="4"/>
-      <c r="M347" s="2" t="s">
+      <c r="M347" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N347" s="2" t="s">
@@ -22056,7 +22056,7 @@
         <v>666</v>
       </c>
       <c r="L352" s="4"/>
-      <c r="M352" s="2" t="s">
+      <c r="M352" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N352" s="2" t="s">
@@ -22206,7 +22206,7 @@
         <v>667</v>
       </c>
       <c r="L355" s="4"/>
-      <c r="M355" s="2" t="s">
+      <c r="M355" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N355" s="2" t="s">
@@ -22424,7 +22424,7 @@
       </c>
       <c r="K359" s="2"/>
       <c r="L359" s="4"/>
-      <c r="M359" s="2" t="s">
+      <c r="M359" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N359" s="2" t="s">
@@ -22588,7 +22588,7 @@
         <v>669</v>
       </c>
       <c r="L362" s="4"/>
-      <c r="M362" s="2" t="s">
+      <c r="M362" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N362" s="2" t="s">
@@ -22754,7 +22754,7 @@
         <v>670</v>
       </c>
       <c r="L365" s="4"/>
-      <c r="M365" s="2" t="s">
+      <c r="M365" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N365" s="2" t="s">
@@ -22914,7 +22914,7 @@
       </c>
       <c r="K368" s="2"/>
       <c r="L368" s="4"/>
-      <c r="M368" s="2" t="s">
+      <c r="M368" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N368" s="2" t="s">
@@ -23132,7 +23132,7 @@
         <v>672</v>
       </c>
       <c r="L372" s="4"/>
-      <c r="M372" s="2" t="s">
+      <c r="M372" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N372" s="2" t="s">
@@ -23544,7 +23544,7 @@
         <v>673</v>
       </c>
       <c r="L380" s="4"/>
-      <c r="M380" s="2" t="s">
+      <c r="M380" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N380" s="2" t="s">
@@ -23744,7 +23744,7 @@
         <v>653</v>
       </c>
       <c r="L384" s="4"/>
-      <c r="M384" s="2" t="s">
+      <c r="M384" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N384" s="2" t="s">
@@ -23944,7 +23944,7 @@
         <v>674</v>
       </c>
       <c r="L388" s="4"/>
-      <c r="M388" s="2" t="s">
+      <c r="M388" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N388" s="2" t="s">
@@ -24302,7 +24302,7 @@
         <v>675</v>
       </c>
       <c r="L395" s="4"/>
-      <c r="M395" s="2" t="s">
+      <c r="M395" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N395" s="2" t="s">
@@ -24502,7 +24502,7 @@
         <v>676</v>
       </c>
       <c r="L399" s="4"/>
-      <c r="M399" s="2" t="s">
+      <c r="M399" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N399" s="2" t="s">
@@ -24760,7 +24760,7 @@
         <v>677</v>
       </c>
       <c r="L404" s="4"/>
-      <c r="M404" s="2" t="s">
+      <c r="M404" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N404" s="2" t="s">
@@ -24908,7 +24908,7 @@
       </c>
       <c r="K407" s="2"/>
       <c r="L407" s="4"/>
-      <c r="M407" s="2" t="s">
+      <c r="M407" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N407" s="2" t="s">
@@ -25062,7 +25062,7 @@
       </c>
       <c r="K410" s="2"/>
       <c r="L410" s="4"/>
-      <c r="M410" s="2" t="s">
+      <c r="M410" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N410" s="2" t="s">
@@ -25210,7 +25210,7 @@
         <v>678</v>
       </c>
       <c r="L413" s="4"/>
-      <c r="M413" s="2" t="s">
+      <c r="M413" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N413" s="2" t="s">
@@ -25370,7 +25370,7 @@
       </c>
       <c r="K416" s="2"/>
       <c r="L416" s="4"/>
-      <c r="M416" s="2" t="s">
+      <c r="M416" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N416" s="2" t="s">
@@ -25692,7 +25692,7 @@
         <v>680</v>
       </c>
       <c r="L422" s="4"/>
-      <c r="M422" s="2" t="s">
+      <c r="M422" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N422" s="2" t="s">
@@ -25840,7 +25840,7 @@
       </c>
       <c r="K425" s="2"/>
       <c r="L425" s="4"/>
-      <c r="M425" s="2" t="s">
+      <c r="M425" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N425" s="2" t="s">
@@ -25994,7 +25994,7 @@
       </c>
       <c r="K428" s="2"/>
       <c r="L428" s="4"/>
-      <c r="M428" s="2" t="s">
+      <c r="M428" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N428" s="2" t="s">
@@ -26140,7 +26140,7 @@
       </c>
       <c r="K431" s="2"/>
       <c r="L431" s="4"/>
-      <c r="M431" s="2" t="s">
+      <c r="M431" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N431" s="2" t="s">
@@ -26298,7 +26298,7 @@
       </c>
       <c r="K434" s="2"/>
       <c r="L434" s="4"/>
-      <c r="M434" s="2" t="s">
+      <c r="M434" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N434" s="2" t="s">
@@ -26670,7 +26670,7 @@
         <v>677</v>
       </c>
       <c r="L441" s="4"/>
-      <c r="M441" s="2" t="s">
+      <c r="M441" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N441" s="2" t="s">
@@ -26818,7 +26818,7 @@
       </c>
       <c r="K444" s="2"/>
       <c r="L444" s="4"/>
-      <c r="M444" s="2" t="s">
+      <c r="M444" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N444" s="2" t="s">
@@ -26972,7 +26972,7 @@
       </c>
       <c r="K447" s="2"/>
       <c r="L447" s="4"/>
-      <c r="M447" s="2" t="s">
+      <c r="M447" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N447" s="2" t="s">
@@ -27118,7 +27118,7 @@
       </c>
       <c r="K450" s="2"/>
       <c r="L450" s="4"/>
-      <c r="M450" s="2" t="s">
+      <c r="M450" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N450" s="2" t="s">
@@ -27276,7 +27276,7 @@
       </c>
       <c r="K453" s="2"/>
       <c r="L453" s="4"/>
-      <c r="M453" s="2" t="s">
+      <c r="M453" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N453" s="2" t="s">
@@ -27432,7 +27432,7 @@
         <v>681</v>
       </c>
       <c r="L456" s="4"/>
-      <c r="M456" s="2" t="s">
+      <c r="M456" s="3" t="s">
         <v>102</v>
       </c>
       <c r="N456" s="2" t="s">
@@ -27722,7 +27722,7 @@
       </c>
       <c r="K462" s="2"/>
       <c r="L462" s="4"/>
-      <c r="M462" s="2" t="s">
+      <c r="M462" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N462" s="2" t="s">
@@ -27882,7 +27882,7 @@
         <v>683</v>
       </c>
       <c r="L465" s="4"/>
-      <c r="M465" s="2" t="s">
+      <c r="M465" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N465" s="2" t="s">
@@ -28030,7 +28030,7 @@
       </c>
       <c r="K468" s="2"/>
       <c r="L468" s="4"/>
-      <c r="M468" s="2" t="s">
+      <c r="M468" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N468" s="2" t="s">
@@ -28188,7 +28188,7 @@
       </c>
       <c r="K471" s="2"/>
       <c r="L471" s="4"/>
-      <c r="M471" s="2" t="s">
+      <c r="M471" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N471" s="2" t="s">
@@ -28346,7 +28346,7 @@
       </c>
       <c r="K474" s="2"/>
       <c r="L474" s="4"/>
-      <c r="M474" s="2" t="s">
+      <c r="M474" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N474" s="2" t="s">
@@ -28492,7 +28492,7 @@
       </c>
       <c r="K477" s="2"/>
       <c r="L477" s="4"/>
-      <c r="M477" s="2" t="s">
+      <c r="M477" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N477" s="2" t="s">
@@ -28652,7 +28652,7 @@
       </c>
       <c r="K480" s="2"/>
       <c r="L480" s="4"/>
-      <c r="M480" s="2" t="s">
+      <c r="M480" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N480" s="2"/>
